--- a/AadharCardData.xlsx
+++ b/AadharCardData.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Rohan_Folders\Education\BTech_Engineering\16th Standard_TSEC_4th Year(BE)\Semester VIII\TSEC\Major Project(PR)\Main\Document-Verification-OCR\Datasets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Rohan_Folders\Education\BTech_Engineering\16th Standard_TSEC_4th Year(BE)\Semester VIII\TSEC\Major Project(PR)\Main\Document-Verification-OCR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{586AAF08-695B-4EA0-BF7B-9692FD9BFC9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8ABCA34-2223-4587-9A51-E7950E7E555A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="50">
   <si>
     <t>Name</t>
   </si>
@@ -161,6 +161,15 @@
   </si>
   <si>
     <t>5339 8543 4962</t>
+  </si>
+  <si>
+    <t>Khushal Ghansham Dodeja</t>
+  </si>
+  <si>
+    <t>21/11/2001</t>
+  </si>
+  <si>
+    <t>4993 3099 4080</t>
   </si>
 </sst>
 </file>
@@ -1002,10 +1011,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1224,6 +1233,20 @@
         <v>46</v>
       </c>
     </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>47</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C16" t="s">
+        <v>5</v>
+      </c>
+      <c r="D16" t="s">
+        <v>49</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/AadharCardData.xlsx
+++ b/AadharCardData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Rohan_Folders\Education\BTech_Engineering\16th Standard_TSEC_4th Year(BE)\Semester VIII\TSEC\Major Project(PR)\Main\Document-Verification-OCR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8ABCA34-2223-4587-9A51-E7950E7E555A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07E3A8BF-7BCE-46FB-AFCD-2D727C1C0CDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -169,7 +169,7 @@
     <t>21/11/2001</t>
   </si>
   <si>
-    <t>4993 3099 4080</t>
+    <t>4993 3199 4080</t>
   </si>
 </sst>
 </file>

--- a/AadharCardData.xlsx
+++ b/AadharCardData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Rohan_Folders\Education\BTech_Engineering\16th Standard_TSEC_4th Year(BE)\Semester VIII\TSEC\Major Project(PR)\Main\Document-Verification-OCR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07E3A8BF-7BCE-46FB-AFCD-2D727C1C0CDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{511BF571-F7FB-42EA-B279-373AD3834DD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="57">
   <si>
     <t>Name</t>
   </si>
@@ -154,15 +154,6 @@
     <t>09/10/2001</t>
   </si>
   <si>
-    <t>Rohan Sanjay Bajaj</t>
-  </si>
-  <si>
-    <t>19/11/2000</t>
-  </si>
-  <si>
-    <t>5339 8543 4962</t>
-  </si>
-  <si>
     <t>Khushal Ghansham Dodeja</t>
   </si>
   <si>
@@ -170,6 +161,36 @@
   </si>
   <si>
     <t>4993 3199 4080</t>
+  </si>
+  <si>
+    <t>Akash Kumar</t>
+  </si>
+  <si>
+    <t>14/07/2000</t>
+  </si>
+  <si>
+    <t>3203 2419 8697</t>
+  </si>
+  <si>
+    <t>Dilkhush Meena</t>
+  </si>
+  <si>
+    <t>1998</t>
+  </si>
+  <si>
+    <t>6321 8481 2058</t>
+  </si>
+  <si>
+    <t>Nalini Vijay Worlikar</t>
+  </si>
+  <si>
+    <t>21/12/1967</t>
+  </si>
+  <si>
+    <t>5613 0382 9978</t>
+  </si>
+  <si>
+    <t>FEMALE</t>
   </si>
 </sst>
 </file>
@@ -1011,10 +1032,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="A15" sqref="A15:XFD15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1247,6 +1268,34 @@
         <v>49</v>
       </c>
     </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>50</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C17" t="s">
+        <v>5</v>
+      </c>
+      <c r="D17" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>53</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C18" t="s">
+        <v>56</v>
+      </c>
+      <c r="D18" t="s">
+        <v>55</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
